--- a/doku ad/Mappe1.xlsx
+++ b/doku ad/Mappe1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athwulf\Documents\doku ad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Sentler\Desktop\AD\ADP\ad\doku ad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>N</t>
   </si>
@@ -58,12 +58,18 @@
   <si>
     <t>Laufzeit in ns</t>
   </si>
+  <si>
+    <t>Verhältniss</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +77,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,13 +114,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3613,26 +3648,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="N"/>
-    <tableColumn id="2" name="Zähler Vergleiche"/>
-    <tableColumn id="3" name="Zähler Wechsel"/>
-    <tableColumn id="4" name="Laufzeit in ns"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="N"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zähler Vergleiche"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zähler Wechsel"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Laufzeit in ns"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle14" displayName="Tabelle14" ref="A11:D17" totalsRowShown="0">
-  <autoFilter ref="A11:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle14" displayName="Tabelle14" ref="A11:D17" totalsRowShown="0">
+  <autoFilter ref="A11:D17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="N"/>
-    <tableColumn id="2" name="Zähler Vergleiche"/>
-    <tableColumn id="3" name="Zähler Wechsel"/>
-    <tableColumn id="4" name="Laufzeit in ns"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="N"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zähler Vergleiche"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Zähler Wechsel"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Laufzeit in ns"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{789F93BD-65FB-4716-A9B3-3D7F63A85FE8}" name="Tabelle143" displayName="Tabelle143" ref="A20:D27" totalsRowShown="0">
+  <autoFilter ref="A20:D27" xr:uid="{CF2D031C-362E-4FB8-B6AB-9E7BF80B8B33}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F3ED8F83-9A20-41EB-97AC-64181E3FD8F2}" name="N"/>
+    <tableColumn id="2" xr3:uid="{C25CC25F-E550-4AA7-B48E-3FF034E7F0A7}" name="Zähler Vergleiche" dataCellStyle="Prozent">
+      <calculatedColumnFormula>B12/B2-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D6CCC10F-74D5-4BA5-9607-BB7830A7ED4B}" name="Zähler Wechsel" dataCellStyle="Prozent">
+      <calculatedColumnFormula>C12/C2-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E0B9AE2A-09C1-4733-A28E-3A7A0B1DF95C}" name="Laufzeit in ns" dataCellStyle="Prozent">
+      <calculatedColumnFormula>D12/D2-1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3934,11 +3988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,12 +4203,157 @@
         <v>16853339</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B12/B2-1</f>
+        <v>1.75</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C12/C2-1</f>
+        <v>-0.12</v>
+      </c>
+      <c r="D21" s="2">
+        <f>D12/D2-1</f>
+        <v>-0.57063197026022305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B13/B3-1</f>
+        <v>0.28838951310861427</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:D27" si="0">C13/C3-1</f>
+        <v>-0.13776722090261284</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18178596739900788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ref="B23:B26" si="1">B14/B4-1</f>
+        <v>0.14519650655021832</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.11570379827641242</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.26046016539752725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10767572296780048</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.5655138821237209E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.24028001024995926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1924382693691511E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.8779850410020771E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.13193138071302268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5763221372380221E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.6899538178627473E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.5036104664408927E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4">
+        <f>(SUM(B21:B26))/6</f>
+        <v>0.4064915577821176</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:D27" si="2">(SUM(C21:C26))/6</f>
+        <v>-9.7467591098151785E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.18609227731435554</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>